--- a/carriers_source_analyses/exchange_rates.xlsx
+++ b/carriers_source_analyses/exchange_rates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
@@ -11,7 +11,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -337,6 +336,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -364,21 +378,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -497,31 +496,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="nl_fce"/>
-      <sheetName val="Research data"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-      <sheetName val="Exchange_rates"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -852,7 +826,7 @@
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -873,28 +847,28 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="15">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:9" s="1" customFormat="1" ht="15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -902,62 +876,62 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:9" s="1" customFormat="1" ht="15">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" s="19" customFormat="1" ht="18">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="2:9" s="10" customFormat="1" ht="18">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="19" thickBot="1">
-      <c r="B8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" s="19" customFormat="1" ht="19" thickBot="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="2:9" s="10" customFormat="1" ht="19" thickBot="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="24">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="15">
+        <v>1.0965</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="25">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="G9" s="16">
+        <v>42412</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/carriers_source_analyses/exchange_rates.xlsx
+++ b/carriers_source_analyses/exchange_rates.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Exchange_rates" sheetId="1" r:id="rId1"/>
@@ -29,6 +34,9 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -69,7 +77,7 @@
     <t>Running Month Average</t>
   </si>
   <si>
-    <t>http://www.ecb.europa.eu/stats/exchange/eurofxref/html/eurofxref-graph-usd.en.html</t>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
   </si>
 </sst>
 </file>
@@ -79,12 +87,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -330,54 +345,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -385,11 +401,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -826,56 +847,56 @@
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="1" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="15">
+    <row r="1" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:9" s="1" customFormat="1" ht="15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="15">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:9" s="1" customFormat="1" thickBot="1">
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:9" s="1" customFormat="1" ht="15">
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -885,7 +906,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:9" s="10" customFormat="1" ht="18">
+    <row r="7" spans="2:9" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
@@ -907,11 +928,11 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="2:9" ht="19" thickBot="1">
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" s="10" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:9" s="10" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
       <c r="C9" s="13" t="s">
         <v>7</v>
@@ -919,16 +940,16 @@
       <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
-        <v>1.0965</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="24">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="16">
-        <v>42412</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="26">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="12"/>
@@ -939,10 +960,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>